--- a/exceltestdata/auditories.xlsx
+++ b/exceltestdata/auditories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Общие настройки" sheetId="2" r:id="rId1"/>
@@ -203,13 +203,13 @@
     <t>debug_mode</t>
   </si>
   <si>
-    <t>14. Вести протокол исключений? Не вести(0), только исключения(1), весь процесс(2)</t>
-  </si>
-  <si>
     <t>klass</t>
   </si>
   <si>
     <t>available</t>
+  </si>
+  <si>
+    <t>14. Вести протокол исключений?</t>
   </si>
 </sst>
 </file>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,13 +1217,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="27">
         <v>1</v>
       </c>
       <c r="D19" s="28" t="str">
-        <f>IF(NOT(C19=""),IF(C19=0,"Файл отладки создан не будет",IF(OR(C19=1,C19=2),"Будет создан файл отладки debug.txt","Ошибка, надо выбрать 0, 1 или 2")),"Необходимо ввести значение")</f>
+        <f>IF(NOT(C19=""),IF(C19=0,"Файл отладки создан не будет",IF(C19=1,"Будет создан файл отладки debug.txt","Ошибка, надо выбрать 0 или 1")),"Необходимо ввести значение")</f>
         <v>Будет создан файл отладки debug.txt</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
         <v>6</v>
@@ -1376,7 +1376,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="C9" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>

--- a/exceltestdata/auditories.xlsx
+++ b/exceltestdata/auditories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Общие настройки" sheetId="2" r:id="rId1"/>
@@ -618,7 +618,63 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -987,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1285,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1236,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,39 +3783,39 @@
     <mergeCell ref="A7:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="I17:AP35">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>IF(I17="проход",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>IF(I17="место",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:O14">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>IF(I8="далеко",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>IF(I8="Рядом",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:X14">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>IF(R8="далеко",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>IF(R8="Рядом",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>IF(E9="нет",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>IF(E9="да",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E15">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>IF(E10="Не доступна",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/exceltestdata/auditories.xlsx
+++ b/exceltestdata/auditories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Общие настройки" sheetId="2" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Необходимо проставить значения по всем опциям. Ключи трогать запрещено.</t>
   </si>
   <si>
-    <t>Настройка ( 1 - да, 2 - нет)</t>
-  </si>
-  <si>
     <t>Доступна для 8 класса?</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>14. Вести протокол исключений?</t>
+  </si>
+  <si>
+    <t>Настройка ( 1 - да, 0 - нет)</t>
   </si>
 </sst>
 </file>
@@ -618,63 +618,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1043,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>12</v>
@@ -1090,7 +1034,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>24</v>
@@ -1105,7 +1049,7 @@
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>25</v>
@@ -1123,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="27">
         <v>0</v>
@@ -1138,7 +1082,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="27">
         <v>1</v>
@@ -1153,7 +1097,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
@@ -1168,7 +1112,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="27">
         <v>1</v>
@@ -1183,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
@@ -1198,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="27">
         <v>1</v>
@@ -1213,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
@@ -1228,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27">
         <v>1</v>
@@ -1240,40 +1184,40 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="27">
         <v>1</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>IF(NOT(C17=""),IF(C17=1,"Командные участники сидят в одной аудитории",IF(C17=2,"Командные участники могут сидеть в разных аудиториях","Ошибка, надо выбрать 1 или 2")),"Необходимо ввести значение")</f>
+        <f>IF(NOT(C17=""),IF(C17=1,"Командные участники сидят в одной аудитории",IF(C17=0,"Командные участники могут сидеть в разных аудиториях","Ошибка, надо выбрать 1 или 0")),"Необходимо ввести значение")</f>
         <v>Командные участники сидят в одной аудитории</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="27">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="28" t="str">
         <f>IF(AND(C18&gt;0,C18&lt;=1),CONCATENATE("Максимальная доля командников - ", C18*100, "%"),"Необходимо ввести число больше 0 и до 1")</f>
-        <v>Максимальная доля командников - 80%</v>
+        <v>Максимальная доля командников - 50%</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="27">
         <v>1</v>
@@ -1293,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1253,7 @@
   <sheetData>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1357,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
@@ -1366,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
         <v>6</v>
@@ -1433,17 +1377,17 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="C9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
         <f>IF(NOT(E9=""),IF(E9=1,"Да",IF(E9=0,"Нет","Ошибка, надо выбрать 0 или 1")),"Введите значение")</f>
-        <v>Нет</v>
+        <v>Да</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>3</v>
@@ -1494,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
@@ -1552,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="18">
         <v>1</v>
@@ -1610,7 +1554,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
@@ -1668,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="18">
         <v>1</v>
@@ -1726,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
@@ -1784,14 +1728,14 @@
         <v>22</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Нет</v>
+        <v>Да</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3783,39 +3727,39 @@
     <mergeCell ref="A7:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="I17:AP35">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>IF(I17="проход",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>IF(I17="место",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:O14">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>IF(I8="далеко",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF(I8="Рядом",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:X14">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>IF(R8="далеко",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF(R8="Рядом",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(E9="нет",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(E9="да",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E15">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>IF(E10="Не доступна",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/exceltestdata/auditories.xlsx
+++ b/exceltestdata/auditories.xlsx
@@ -988,7 +988,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,11 +1055,11 @@
         <v>25</v>
       </c>
       <c r="C8" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>IF(C8=1,"Участники сидят на каждом ряду, технических рядов для прохода организаторов не остается",IF(C8=2,"Участники сидят через ряд, каждый второй ряд свободен",IF(C8=3,"Участники сидят два ряда через один, каждый третий ряд свободен","Ошибка, надо выбрать из 1, 2, 3")))</f>
-        <v>Участники сидят два ряда через один, каждый третий ряд свободен</v>
+        <v>Участники сидят через ряд, каждый второй ряд свободен</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
